--- a/data/trans_camb/IP1007-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1007-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,0</t>
+          <t>-5,46; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,0</t>
+          <t>-4,33; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,0</t>
+          <t>-4,68; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,36</t>
+          <t>-3,58; -0,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,36</t>
+          <t>-3,74; -0,37</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,16</t>
+          <t>-0,89; 0,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,39</t>
+          <t>-0,8; 0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,29</t>
+          <t>-0,35; 0,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,44</t>
+          <t>-0,28; 0,45</t>
         </is>
       </c>
     </row>
@@ -1112,17 +1112,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,18</t>
+          <t>-0,6; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,0</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,59</t>
+          <t>-0,32; 0,66</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; -0,01</t>
+          <t>-0,83; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,25</t>
+          <t>-0,67; 0,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,35</t>
+          <t>-0,45; 0,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,5</t>
+          <t>-0,44; 0,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,08</t>
+          <t>-0,52; 0,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,2</t>
+          <t>-0,46; 0,21</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 182,68</t>
+          <t>-100,0; 197,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,7; 188,04</t>
+          <t>-100,0; 96,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 129,48</t>
+          <t>-88,54; 159,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1007-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1007-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; -0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; -0,35</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 0,0</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,0</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,0</t>
+          <t>-0,86; 0,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,0</t>
+          <t>-0,75; 0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,39</t>
+          <t>-0,36; 0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,37</t>
+          <t>-0,29; 0,45</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-65,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-36,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-22,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,15</t>
+          <t>-0,61; 1,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,38</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,33</t>
+          <t>-0,32; 0,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,45</t>
+          <t>-0,32; 0,63</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,05%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-22,05%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>21,86%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>-0,44; 0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,07</t>
+          <t>-0,91; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-0,74; 0,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,51</t>
+          <t>-0,54; 0,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,66</t>
+          <t>-0,46; 0,19</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-35,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>-79,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-42,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>-58,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>-39,72%</t>
         </is>
       </c>
     </row>
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 172,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,08; 126,39</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 0,0</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 0,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,41</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 0,41</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 0,06</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 0,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-79,68%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-42,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-18,88%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-35,28%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-58,55%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-39,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 197,77</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 96,58</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-88,54; 159,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
